--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/1.NhanBH/NBH221227_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/1.NhanBH/NBH221227_AnhTuanNB.xlsx
@@ -75,9 +75,6 @@
     <t>Công Ty CP Công Nghệ Điện Tử &amp; Viễn Thông Việt Nam</t>
   </si>
   <si>
-    <t>TG102LE-4G</t>
-  </si>
-  <si>
     <t>Dây nguồn</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>ĐC: AA46 TT19 KĐT Văn Quán, Phường Văn Quán, Quận Hà Đông, Hà Nội</t>
+  </si>
+  <si>
+    <t>TG102LE-4G (GD)</t>
   </si>
 </sst>
 </file>
@@ -502,6 +502,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -543,33 +570,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -944,92 +944,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" s="30">
         <v>861881051077791</v>
@@ -1070,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" s="30">
         <v>862205051220194</v>
@@ -1084,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13" s="30">
         <v>862205051188821</v>
@@ -1098,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" s="30">
         <v>862205051188490</v>
@@ -1112,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C15" s="30">
         <v>861881051088665</v>
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C16" s="30">
         <v>861881051082379</v>
@@ -1140,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C17" s="30">
         <v>861881054167029</v>
@@ -1154,7 +1154,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C18" s="30">
         <v>861881051089937</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C19" s="30">
         <v>861881051078351</v>
@@ -1182,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C20" s="30">
         <v>862205051161414</v>
@@ -1196,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C21" s="30">
         <v>861881054164034</v>
@@ -1210,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C22" s="30">
         <v>861881051086834</v>
@@ -1224,7 +1224,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C23" s="30">
         <v>862205051165993</v>
@@ -1238,7 +1238,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C24" s="30">
         <v>862205051216846</v>
@@ -1252,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C25" s="30">
         <v>862205051178665</v>
@@ -1266,7 +1266,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C26" s="30">
         <v>861881051080134</v>
@@ -1280,7 +1280,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C27" s="30">
         <v>861881051088954</v>
@@ -1294,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C28" s="30">
         <v>861881051083468</v>
@@ -1308,7 +1308,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C29" s="30">
         <v>861881051084292</v>
@@ -1322,7 +1322,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C30" s="30">
         <v>862205051196857</v>
@@ -1336,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C31" s="30">
         <v>861881051072313</v>
@@ -1350,7 +1350,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C32" s="30">
         <v>861881051082957</v>
@@ -1364,7 +1364,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C33" s="30">
         <v>861881051086610</v>
@@ -1378,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C34" s="30">
         <v>861881051082627</v>
@@ -1392,7 +1392,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C35" s="30">
         <v>862205051180125</v>
@@ -1406,7 +1406,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C36" s="30">
         <v>861881051083211</v>
@@ -1420,7 +1420,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C37" s="30">
         <v>861881051090406</v>
@@ -1434,7 +1434,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C38" s="30">
         <v>861881051071968</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C39" s="30">
         <v>862205051171157</v>
@@ -1462,7 +1462,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C40" s="30">
         <v>862205051172262</v>
@@ -1476,7 +1476,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C41" s="30">
         <v>862205051171322</v>
@@ -1490,7 +1490,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C42" s="30">
         <v>862205051236588</v>
@@ -1504,7 +1504,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C43" s="30">
         <v>862205051172163</v>
@@ -1518,7 +1518,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C44" s="30">
         <v>861881051091438</v>
@@ -1532,7 +1532,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C45" s="30">
         <v>862205051176115</v>
@@ -1546,7 +1546,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C46" s="30">
         <v>862205051180513</v>
@@ -1560,7 +1560,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C47" s="30">
         <v>862205051175786</v>
@@ -1574,7 +1574,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C48" s="30">
         <v>862205051238782</v>
@@ -1588,7 +1588,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C49" s="30">
         <v>862205051162958</v>
@@ -1602,7 +1602,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C50" s="30">
         <v>861881051083773</v>
@@ -1616,7 +1616,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C51" s="30">
         <v>862205051195008</v>
@@ -1630,7 +1630,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C52" s="30">
         <v>862205051183103</v>
@@ -1644,10 +1644,10 @@
         <v>43</v>
       </c>
       <c r="B53" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>20</v>
       </c>
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
@@ -1665,23 +1665,23 @@
       <c r="A55" s="18"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
-      <c r="D55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="37"/>
+      <c r="D55" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="45"/>
+      <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35" t="s">
+      <c r="C56" s="44"/>
+      <c r="D56" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="40"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
@@ -1717,16 +1717,16 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34" t="s">
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="41"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="50"/>
     </row>
     <row r="62" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
@@ -1754,11 +1754,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="B56:C56"/>
@@ -1768,6 +1763,11 @@
     <mergeCell ref="D61:F61"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
